--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283586.441018901</v>
+        <v>1280885.791395593</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>116.7041034359431</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>72.3669840419067</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>116.1789183106378</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>26.95228090977709</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341637</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>221.4605071852562</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>288.5102079953235</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>88.82858584423835</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.0198440937147</v>
       </c>
       <c r="G5" t="n">
-        <v>383.0198440937155</v>
+        <v>12.42130226825858</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520068</v>
+        <v>99.38935721520079</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980477</v>
+        <v>143.3593638980478</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.0137567536252</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.63492518706634</v>
+        <v>36.31604239259341</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399542011172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>137.0931511722478</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.735559994784</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422477961</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.1773223714492</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.1722518073688</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>23.39973346045328</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.739389635061188</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>50.98074812542835</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371888</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238027</v>
+        <v>22.6077720323801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114102</v>
+        <v>97.97552699114092</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>180.7396382672422</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6087856860964</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458124</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035238</v>
+        <v>9.753166794035153</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>124.1004521009539</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146331</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>203.2316140840665</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754649</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001811</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>155.7639071716317</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>53.65602513333734</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2132,10 +2132,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>40.57972681915276</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,10 +2485,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>41.74133133758689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853553</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>133.5893686009537</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>160.4062378350042</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>114.932220804165</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187869</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>115.4764219077146</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833812</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.17501931583818</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.168699193619</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
@@ -4340,10 +4340,10 @@
         <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>573.7617370571244</v>
       </c>
       <c r="V2" t="n">
-        <v>534.7928453799755</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799755</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799755</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="Y2" t="n">
-        <v>268.4151888127975</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.869123378691</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>326.869123378691</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
         <v>21.0971104001205</v>
@@ -4407,13 +4407,13 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>46.96951069551291</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>121.6535314649671</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>268.3979551252638</v>
       </c>
       <c r="M3" t="n">
         <v>529.474696326755</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>906.2192216098645</v>
+        <v>808.3837902496284</v>
       </c>
       <c r="V3" t="n">
-        <v>788.8667788718465</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="W3" t="n">
-        <v>534.6294221436449</v>
+        <v>573.2316820178858</v>
       </c>
       <c r="X3" t="n">
-        <v>534.6294221436449</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>326.869123378691</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4462,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.7170450051586</v>
+        <v>224.9087497860237</v>
       </c>
       <c r="C4" t="n">
-        <v>351.7808620772518</v>
+        <v>55.97256685811683</v>
       </c>
       <c r="D4" t="n">
-        <v>351.7808620772518</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>351.7808620772518</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>204.8909145793414</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>702.3655098353984</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>702.3655098353984</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="V4" t="n">
-        <v>702.3655098353984</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="W4" t="n">
-        <v>702.3655098353984</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="X4" t="n">
-        <v>702.3655098353984</v>
+        <v>224.9087497860237</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.3655098353984</v>
+        <v>224.9087497860237</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000.383206686212</v>
+        <v>530.4703790195922</v>
       </c>
       <c r="C5" t="n">
-        <v>1000.383206686212</v>
+        <v>530.4703790195922</v>
       </c>
       <c r="D5" t="n">
-        <v>910.6573623991028</v>
+        <v>530.4703790195922</v>
       </c>
       <c r="E5" t="n">
-        <v>524.8691098008585</v>
+        <v>530.4703790195922</v>
       </c>
       <c r="F5" t="n">
-        <v>517.923609051655</v>
+        <v>143.5816476117996</v>
       </c>
       <c r="G5" t="n">
         <v>131.0348776438616</v>
@@ -4562,55 +4562,55 @@
         <v>131.0348776438616</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749724</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281407</v>
+        <v>93.51877468281373</v>
       </c>
       <c r="K5" t="n">
-        <v>238.4938972452978</v>
+        <v>238.4938972452971</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192547</v>
+        <v>455.2501182192534</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494221</v>
+        <v>728.1026159494203</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.9839607302</v>
+        <v>1009.983960730198</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145367</v>
+        <v>1262.821260145364</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739597</v>
+        <v>1444.111044739594</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374862</v>
+        <v>1532.079376374859</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374862</v>
+        <v>1532.079376374859</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938094006</v>
+        <v>1387.271938094002</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938094006</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="U5" t="n">
-        <v>1387.271938094006</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="V5" t="n">
-        <v>1387.271938094006</v>
+        <v>1174.663486810235</v>
       </c>
       <c r="W5" t="n">
-        <v>1387.271938094006</v>
+        <v>821.894831540121</v>
       </c>
       <c r="X5" t="n">
-        <v>1387.271938094006</v>
+        <v>821.894831540121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000.383206686212</v>
+        <v>821.894831540121</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.5556533730188</v>
+        <v>517.1904547900581</v>
       </c>
       <c r="C6" t="n">
-        <v>58.5556533730188</v>
+        <v>342.7374255089311</v>
       </c>
       <c r="D6" t="n">
-        <v>58.5556533730188</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>58.5556533730188</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="F6" t="n">
-        <v>58.5556533730188</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="G6" t="n">
-        <v>58.5556533730188</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="H6" t="n">
-        <v>58.5556533730188</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749724</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J6" t="n">
-        <v>69.88900179495143</v>
+        <v>49.27296248835609</v>
       </c>
       <c r="K6" t="n">
-        <v>179.8878138897265</v>
+        <v>159.2717745831309</v>
       </c>
       <c r="L6" t="n">
-        <v>374.1173326028523</v>
+        <v>448.9177571045006</v>
       </c>
       <c r="M6" t="n">
-        <v>620.1308878987892</v>
+        <v>828.1074027572781</v>
       </c>
       <c r="N6" t="n">
-        <v>887.0643348829761</v>
+        <v>1095.040849741465</v>
       </c>
       <c r="O6" t="n">
-        <v>1109.036493992977</v>
+        <v>1317.013008851465</v>
       </c>
       <c r="P6" t="n">
-        <v>1267.855654846703</v>
+        <v>1475.832169705191</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374862</v>
+        <v>1532.079376374859</v>
       </c>
       <c r="R6" t="n">
-        <v>1532.079376374862</v>
+        <v>1532.079376374859</v>
       </c>
       <c r="S6" t="n">
-        <v>1387.587760525667</v>
+        <v>1532.079376374859</v>
       </c>
       <c r="T6" t="n">
-        <v>1191.678083163164</v>
+        <v>1336.169699012356</v>
       </c>
       <c r="U6" t="n">
-        <v>963.5569173034499</v>
+        <v>1336.169699012356</v>
       </c>
       <c r="V6" t="n">
-        <v>728.4048090717072</v>
+        <v>1101.017590780613</v>
       </c>
       <c r="W6" t="n">
-        <v>474.1674523435055</v>
+        <v>1101.017590780613</v>
       </c>
       <c r="X6" t="n">
-        <v>266.3159521379727</v>
+        <v>893.16609057508</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.5556533730188</v>
+        <v>685.4057918101262</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>784.4200087255778</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="C7" t="n">
-        <v>645.9420782485598</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="D7" t="n">
-        <v>495.8254388362241</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="E7" t="n">
-        <v>347.9123452538309</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="F7" t="n">
-        <v>201.0223977559206</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="G7" t="n">
-        <v>32.64010815626285</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626285</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626285</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749724</v>
+        <v>30.64158752749717</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747004</v>
+        <v>157.2595961747002</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914624</v>
+        <v>374.8134887914619</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437695</v>
+        <v>614.5826883437688</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630876</v>
+        <v>854.0853286630867</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109134</v>
+        <v>1059.288486109132</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.354555016231</v>
+        <v>1211.35455501623</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.202138767125</v>
+        <v>1233.202138767124</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.202138767125</v>
+        <v>1112.821005058589</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.202138767125</v>
+        <v>909.2941085955974</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.202138767125</v>
+        <v>909.2941085955974</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.202138767125</v>
+        <v>620.1541806499113</v>
       </c>
       <c r="V7" t="n">
-        <v>1233.202138767125</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="W7" t="n">
-        <v>1233.202138767125</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="X7" t="n">
-        <v>1005.212587869108</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.4200087255778</v>
+        <v>182.8997289363699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1296.296386131215</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1296.296386131215</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>938.0306875244648</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>552.2424349262205</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>141.256530136613</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4805,7 +4805,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1669.762144392295</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1296.296386131215</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1296.296386131215</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4884,7 +4884,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.20497511435</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
         <v>884.9085321458217</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2332.418671408905</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386843</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420328</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.48485887811</v>
+        <v>1851.484858878114</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765426</v>
+        <v>2485.18066176543</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687102</v>
+        <v>3070.226377687107</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856284</v>
+        <v>3535.048359856289</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882242</v>
+        <v>3835.937563882247</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234592</v>
+        <v>3925.553311234597</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455662</v>
+        <v>3826.588132455667</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971442</v>
+        <v>3622.786021971447</v>
       </c>
       <c r="U11" t="n">
-        <v>3440.220730792409</v>
+        <v>3369.295305604055</v>
       </c>
       <c r="V11" t="n">
-        <v>3109.157843448838</v>
+        <v>3038.232418260484</v>
       </c>
       <c r="W11" t="n">
-        <v>3109.157843448838</v>
+        <v>2685.46376299037</v>
       </c>
       <c r="X11" t="n">
-        <v>3109.157843448838</v>
+        <v>2311.99800472929</v>
       </c>
       <c r="Y11" t="n">
-        <v>2719.018511473027</v>
+        <v>1949.766908076668</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503047</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792129</v>
+        <v>196.8120623792132</v>
       </c>
       <c r="K12" t="n">
-        <v>196.8120623792129</v>
+        <v>477.162132237651</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0998698065225</v>
+        <v>900.4499396649612</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.413644050412</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1674.721951401479</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2147.693504267228</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.961807107382</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.081882663713</v>
+        <v>203.8650582458577</v>
       </c>
       <c r="C13" t="n">
-        <v>835.1456997358064</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0290603234706</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="E13" t="n">
-        <v>537.1159667410775</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="F13" t="n">
-        <v>390.2260192431671</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="G13" t="n">
-        <v>222.7461217197098</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469185</v>
+        <v>78.51106622469194</v>
       </c>
       <c r="J13" t="n">
-        <v>139.08183346004</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457704</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888925</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715849</v>
+        <v>1800.967734715851</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082521</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551105</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551105</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
-        <v>2155.909043551105</v>
+        <v>1667.488017920204</v>
       </c>
       <c r="U13" t="n">
-        <v>2155.909043551105</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1901.224555345218</v>
+        <v>1123.712823154606</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.807385308257</v>
+        <v>834.2956531176449</v>
       </c>
       <c r="X13" t="n">
-        <v>1406.522926637483</v>
+        <v>606.3061022196275</v>
       </c>
       <c r="Y13" t="n">
-        <v>1185.730347493953</v>
+        <v>385.5135230760974</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,10 +5276,10 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5361,22 +5361,22 @@
         <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>572.0073801158076</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>733.658398959387</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>175.0061676818302</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156341</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693319</v>
+        <v>819.1842911693318</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2203.179149397323</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>1983.500367111705</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.500367111705</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1728.815878905818</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905818</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5504,52 +5504,52 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836023</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.294644713842</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876686</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876686</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753328</v>
+        <v>408.9258559154849</v>
       </c>
       <c r="E25" t="n">
-        <v>282.8695714929397</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>135.9796239950293</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614385</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179083</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6221,31 +6221,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>924.697985983184</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C28" t="n">
-        <v>755.761803055277</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D28" t="n">
-        <v>605.6451636429413</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E28" t="n">
-        <v>457.7320700605482</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F28" t="n">
-        <v>310.8421225626378</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235164</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1720.348534373475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y31" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="35">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,7 +7111,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998285</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7333,19 +7333,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.27452942083</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443771</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545121</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745237</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597623</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597623</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597623</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597623</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7588,31 +7588,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121639</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121639</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121639</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,13 +7822,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>28.18495819153179</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752786</v>
+        <v>34.58458098752808</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>20.82428212787384</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>96.38026647297403</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.5213033907486</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780645</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>70.21617093647545</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>27.6291529699572</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>43.1463689976739</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034039</v>
+        <v>89.71507747034032</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146339</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1997994941144</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>22.47804130497065</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613729271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372931</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>25.57458118682726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>113.5907959652905</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922659</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788604</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.15987277746899e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856872</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>185.1299285698844</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>123.782806954682</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856484</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267405016</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>31.93476969131513</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>65.30341755403293</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788604</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>171.2522535850792</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864988</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>65.54986409393004</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823105</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>72.1196935303857</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194264</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857373.5866155244</v>
+        <v>857373.5866155251</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>932840.8408239328</v>
+        <v>932840.8408239327</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>937977.6930837046</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>937977.6930837044</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>937977.6930837043</v>
+        <v>937977.6930837042</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.0619185705</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
       </c>
       <c r="E2" t="n">
-        <v>442233.6433958225</v>
+        <v>442233.6433958228</v>
       </c>
       <c r="F2" t="n">
         <v>481607.8629828184</v>
       </c>
       <c r="G2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="H2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="I2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140038</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140036</v>
-      </c>
-      <c r="K2" t="n">
-        <v>484287.9598140034</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140034</v>
       </c>
       <c r="M2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140035</v>
       </c>
-      <c r="N2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="O2" t="n">
-        <v>484287.9598140034</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.9098103541</v>
+        <v>132064.909810353</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196356</v>
+        <v>266112.9182196366</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357064</v>
+        <v>325187.1190357078</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051375</v>
+        <v>166521.3471051362</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557958</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.53736648373</v>
+        <v>30705.53736648351</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950833</v>
+        <v>65187.3803795086</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456829</v>
+        <v>84929.59434456857</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848895</v>
+        <v>43782.40655848861</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224802</v>
@@ -26418,7 +26418,7 @@
         <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>214711.2090781349</v>
+        <v>214711.2090781352</v>
       </c>
       <c r="D4" t="n">
         <v>139134.5471223413</v>
@@ -26433,10 +26433,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26445,19 +26445,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678122</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589729</v>
+        <v>72540.50950589722</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214711</v>
+        <v>86093.72216214723</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-500843.3878517512</v>
+        <v>-500843.387851751</v>
       </c>
       <c r="C6" t="n">
-        <v>73308.43352418338</v>
+        <v>73308.43352418435</v>
       </c>
       <c r="D6" t="n">
-        <v>-5560.175863251527</v>
+        <v>-5560.175863252487</v>
       </c>
       <c r="E6" t="n">
-        <v>20494.83486849378</v>
+        <v>20284.8706246479</v>
       </c>
       <c r="F6" t="n">
-        <v>204393.8316982867</v>
+        <v>204347.9267027223</v>
       </c>
       <c r="G6" t="n">
-        <v>361441.1054677359</v>
+        <v>361406.3675423002</v>
       </c>
       <c r="H6" t="n">
-        <v>372608.3417033155</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="I6" t="n">
-        <v>372608.3417033154</v>
+        <v>372573.6037778796</v>
       </c>
       <c r="J6" t="n">
-        <v>303609.1872842012</v>
+        <v>303574.4493587656</v>
       </c>
       <c r="K6" t="n">
-        <v>341902.8043368314</v>
+        <v>341868.0664113961</v>
       </c>
       <c r="L6" t="n">
-        <v>307420.9613238068</v>
+        <v>307386.2233983708</v>
       </c>
       <c r="M6" t="n">
-        <v>287678.7473587469</v>
+        <v>287644.0094333111</v>
       </c>
       <c r="N6" t="n">
-        <v>328825.9351448264</v>
+        <v>328791.1972193908</v>
       </c>
       <c r="O6" t="n">
-        <v>369585.0437260903</v>
+        <v>369550.3058006546</v>
       </c>
       <c r="P6" t="n">
-        <v>372608.3417033153</v>
+        <v>372573.6037778794</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605226</v>
+        <v>716.7570176605218</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716385</v>
@@ -26790,19 +26790,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937155</v>
+        <v>383.0198440937147</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.388327808648</v>
+        <v>981.3883278086494</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910442</v>
+        <v>102.7020038910434</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570166</v>
+        <v>217.3078744570174</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1053753770167</v>
+        <v>278.1053753770178</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218295</v>
+        <v>145.8707812218283</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922093</v>
+        <v>119.3059640922085</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063233</v>
+        <v>257.5649880063242</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086105</v>
       </c>
       <c r="F4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922093</v>
+        <v>119.3059640922085</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063231</v>
+        <v>257.5649880063242</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086094</v>
+        <v>340.8034957086105</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27258,19 +27258,19 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922093</v>
+        <v>119.3059640922085</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063233</v>
+        <v>257.5649880063242</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086091</v>
+        <v>340.8034957086105</v>
       </c>
       <c r="N4" t="n">
-        <v>178.756962517358</v>
+        <v>178.7569625173567</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>290.1719423057684</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>139.9227315613165</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>116.6216688387875</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>178.8207042937004</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.088771124796</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,13 +27585,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.75383869430965</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>94.22363366815711</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>265.8544557764446</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>23.85620164799678</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>29.40145817454307</v>
       </c>
       <c r="H5" t="n">
         <v>309.9653033936935</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1151380880864</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.218094562338081</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881101352</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339768</v>
+        <v>97.34583147339769</v>
       </c>
       <c r="I6" t="n">
-        <v>8.681117205527002</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677455</v>
+        <v>4.436963001677555</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399542011172</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>30.15366992638008</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
-        <v>150.735559994784</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5810943629794</v>
+        <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422478075</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714491</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983621</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>44.96539151645925</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>388.1479693125007</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.4985490209924</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>96.27076102970049</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002313</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-4.168426311850774e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.98632585327141e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-3.183231456205249e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>-7.032208304403595e-13</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876471</v>
+        <v>2.881435246876467</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207366</v>
+        <v>29.50949872207363</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552052</v>
+        <v>111.0865323552051</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845821</v>
+        <v>244.5582147845818</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848632</v>
+        <v>366.5293687848628</v>
       </c>
       <c r="L5" t="n">
-        <v>454.712092721459</v>
+        <v>454.7120927214585</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930984</v>
+        <v>505.9548167930978</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882863</v>
+        <v>514.1416946882857</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521583</v>
+        <v>485.4894229521578</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948954</v>
+        <v>414.3539902948949</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161317</v>
+        <v>311.1625905161313</v>
       </c>
       <c r="R5" t="n">
-        <v>181.0009568266043</v>
+        <v>181.000956826604</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819764</v>
+        <v>65.66070568819757</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320176</v>
+        <v>12.61348279320174</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501176</v>
+        <v>0.2305148197501173</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835841</v>
+        <v>1.541703773835839</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309878</v>
+        <v>14.88961276309877</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882173</v>
+        <v>53.08059045882167</v>
       </c>
       <c r="J6" t="n">
-        <v>145.6571973342011</v>
+        <v>145.657197334201</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812025</v>
+        <v>248.9513501812022</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234356</v>
+        <v>334.7458128234352</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249848</v>
+        <v>390.6325746249843</v>
       </c>
       <c r="N6" t="n">
-        <v>400.971456511805</v>
+        <v>400.9714565118045</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757582</v>
+        <v>366.8105465757578</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160739</v>
+        <v>294.3978022160736</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584137</v>
+        <v>196.7971343584135</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096568</v>
+        <v>95.72087115096558</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313501</v>
+        <v>28.63647141313498</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943585</v>
+        <v>6.214148105943578</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014278798576212</v>
+        <v>0.1014278798576211</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797664</v>
+        <v>1.292512654797662</v>
       </c>
       <c r="H7" t="n">
-        <v>11.4916125126556</v>
+        <v>11.49161251265559</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427884</v>
+        <v>38.8693805642788</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419481</v>
+        <v>91.3806446941947</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1664702574012</v>
+        <v>150.1664702574011</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232818</v>
+        <v>192.1613814232815</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970555</v>
+        <v>202.6072336970553</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291735</v>
+        <v>197.7896865291733</v>
       </c>
       <c r="O7" t="n">
-        <v>182.690788698128</v>
+        <v>182.6907886981278</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402555</v>
+        <v>156.3235305402554</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2303096667389</v>
+        <v>108.2303096667388</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572038</v>
+        <v>58.11606900572032</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861018</v>
+        <v>22.52497053861016</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499107</v>
+        <v>5.5225540704991</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169083</v>
+        <v>0.07050069026169074</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485653</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508991</v>
+        <v>49.90608543508996</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307179</v>
+        <v>413.5937135307183</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726055</v>
+        <v>619.8697634726061</v>
       </c>
       <c r="L11" t="n">
-        <v>769.003254221697</v>
+        <v>769.0032542216978</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857424</v>
+        <v>855.6642913857432</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898387</v>
+        <v>869.5098341898395</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294406</v>
+        <v>821.0534800294414</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615136</v>
+        <v>700.7501494615143</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895587</v>
+        <v>526.2341787895591</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356981</v>
+        <v>306.1064947356984</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475346</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188518</v>
+        <v>0.3898437041188522</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969425</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191524</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596476</v>
+        <v>89.76921320596485</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783041</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256415</v>
+        <v>566.117821625642</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845328</v>
+        <v>660.6327957845335</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147139</v>
+        <v>237.3367583732534</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431808</v>
+        <v>620.3452877431814</v>
       </c>
       <c r="P12" t="n">
-        <v>497.881784020547</v>
+        <v>497.8817840205475</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.4240590009895</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533298</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697586</v>
+        <v>48.42963285697591</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190412</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691789</v>
+        <v>65.73539745691797</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619741</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509175</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263709</v>
+        <v>342.6467528263712</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973094</v>
+        <v>334.4993788973097</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050059</v>
+        <v>308.9643167050062</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761896</v>
+        <v>264.3723481761898</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570609</v>
+        <v>98.28514988570618</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929611</v>
+        <v>38.09394102929615</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826903</v>
+        <v>9.339672552826912</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,16 +32081,16 @@
         <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>305.4178913397753</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P15" t="n">
         <v>557.7961431982452</v>
@@ -32099,7 +32099,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860829</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33506,13 +33506,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>754.000239683233</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>26.13373767211355</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34784,7 +34784,7 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789579</v>
+        <v>63.51231025789551</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398826</v>
+        <v>146.4395177398822</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514718</v>
+        <v>218.9456777514713</v>
       </c>
       <c r="M5" t="n">
-        <v>275.6085835658257</v>
+        <v>275.6085835658251</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916954</v>
+        <v>284.7286310916948</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304716</v>
+        <v>255.3912115304711</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396258</v>
+        <v>183.1209945396254</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168219</v>
+        <v>88.85690064168185</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>39.64385279540827</v>
+        <v>18.81957066753426</v>
       </c>
       <c r="K6" t="n">
-        <v>111.1099112068435</v>
+        <v>111.1099112068432</v>
       </c>
       <c r="L6" t="n">
-        <v>196.1914330435615</v>
+        <v>292.5716995165351</v>
       </c>
       <c r="M6" t="n">
-        <v>248.4985407029665</v>
+        <v>383.0198440937147</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284717</v>
+        <v>269.6297444284712</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313138</v>
+        <v>224.2143021313133</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017437</v>
+        <v>160.4233948017434</v>
       </c>
       <c r="Q6" t="n">
-        <v>266.8926480082413</v>
+        <v>56.81536027239196</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315184</v>
+        <v>127.8969784315182</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835979</v>
+        <v>219.7514066835977</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588961</v>
+        <v>242.1911106588959</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084021</v>
+        <v>241.9218589084019</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121677</v>
+        <v>207.2759166121675</v>
       </c>
       <c r="P7" t="n">
-        <v>153.602089805149</v>
+        <v>153.6020898051489</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504452</v>
+        <v>22.06826641504441</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215493</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>466.4238188159148</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820405</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040316</v>
+        <v>232.547809004032</v>
       </c>
       <c r="K11" t="n">
-        <v>399.779912427625</v>
+        <v>399.7799124276256</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517099</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584697</v>
+        <v>625.3180581584705</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932478</v>
+        <v>640.0967705932485</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077539</v>
+        <v>590.9552686077546</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062441</v>
+        <v>469.5171537062448</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151091</v>
+        <v>303.9284889151096</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156598</v>
+        <v>90.52095692156627</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457673</v>
+        <v>427.5634418457678</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625146</v>
+        <v>518.4987618625153</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313806</v>
+        <v>105.9950462899201</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987364</v>
+        <v>477.749043298737</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062168</v>
+        <v>363.9073766062172</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.442284914968</v>
+        <v>192.8390133211633</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936581</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701835</v>
+        <v>61.18259316701852</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360915</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112337</v>
+        <v>352.570886811234</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882118</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765383</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190456</v>
+        <v>333.5494446190459</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410831</v>
+        <v>261.6509074410833</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998355</v>
+        <v>96.87566713998372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>163.283857417757</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P15" t="n">
         <v>423.821735783915</v>
@@ -35747,7 +35747,7 @@
         <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.1903400640646</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37154,13 +37154,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998997</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
